--- a/학습자료/순서배열/고려_연도(왕)_전기_연도별모음_문제.xlsx
+++ b/학습자료/순서배열/고려_연도(왕)_전기_연도별모음_문제.xlsx
@@ -453,21 +453,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ㄱ. 기인선상법 실시 
-ㄴ. 천리장성 완공 
-ㄷ. 최초로 지방관 파견</t>
+          <t>ㄱ. 광학보 설치 
+ㄴ. 삼복제 실시 
+ㄷ. 의천의 국청사 창건 및 천태종 창시</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ㄷㄴㄱ</t>
+          <t>ㄱㄴㄷ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 983년 : 성종 - 최초로 지방관 파견
-ㄴ. 1044년 : 정종 - 천리장성 완공
-ㄱ. 1077년 : 문종 - 기인선상법 실시
+          <t xml:space="preserve">ㄱ. 946년 : 정종 - 광학보 설치
+ㄴ. 1057년 : 문종 - 삼복제 실시
+ㄷ. 1097년 : 숙종 - 의천의 국청사 창건 및 천태종 창시
 </t>
         </is>
       </c>
@@ -475,9 +475,9 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ㄱ. 서경에 대화궁 건립 
-ㄴ. 경정 전시과 시행 
-ㄷ. 동서 대비원 설치</t>
+          <t>ㄱ. 무학재 및 무과 폐지 
+ㄴ. 유신지교 15조 발표 
+ㄷ. 귀법사 창건</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -487,9 +487,9 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1049년 : 문종 - 동서 대비원 설치
-ㄴ. 1076년 : 문종 - 경정 전시과 시행
-ㄱ. 1129년 : 인종 - 서경에 대화궁 건립
+          <t xml:space="preserve">ㄷ. 963년 : 광종 - 귀법사 창건
+ㄴ. 1127년 : 인종 - 유신지교 15조 발표
+ㄱ. 1133년 : 인종 - 무학재 및 무과 폐지
 </t>
         </is>
       </c>
@@ -497,21 +497,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ㄱ. 기인선상법 실시 
-ㄴ. 개경에 시전 설치 
-ㄷ. 개경에 나성 축조</t>
+          <t>ㄱ. 역분전 지급 
+ㄴ. 강조의 정변 
+ㄷ. 경정 전시과 시행</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ㄴㄷㄱ</t>
+          <t>ㄱㄴㄷ</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 919년 : 태조 - 개경에 시전 설치
-ㄷ. 1029년 : 현종 - 개경에 나성 축조
-ㄱ. 1077년 : 문종 - 기인선상법 실시
+          <t xml:space="preserve">ㄱ. 940년 : 태조 - 역분전 지급
+ㄴ. 1009년 : 목종 - 강조의 정변
+ㄷ. 1076년 : 문종 - 경정 전시과 시행
 </t>
         </is>
       </c>
@@ -519,9 +519,9 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ㄱ. 송과 국교 수립 
-ㄴ. 묘청의 서경 천도 운동 
-ㄷ. 동북 9성 축조</t>
+          <t>ㄱ. 왕규의 난 
+ㄴ. 송나라 서긍의 고려도경 저술 
+ㄷ. 윤관 별무반 조직</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -531,9 +531,9 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 962년 : 광종 - 송과 국교 수립
-ㄷ. 1108년 : 예종 - 동북 9성 축조
-ㄴ. 1135년 : 인종 - 묘청의 서경 천도 운동
+          <t xml:space="preserve">ㄱ. 945년 : 혜종 - 왕규의 난
+ㄷ. 1104년 : 숙종 - 윤관 별무반 조직
+ㄴ. 1123년 : 인종 - 송나라 서긍의 고려도경 저술
 </t>
         </is>
       </c>
@@ -541,21 +541,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ㄱ. 거란의 2차 침입 
-ㄴ. 동서 대비원 설치 
-ㄷ. 개정 전시과 시행</t>
+          <t>ㄱ. 혜민국 설치 
+ㄴ. 동북 9성 여진에 반환 
+ㄷ. 후삼국 통일</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ㄷㄱㄴ</t>
+          <t>ㄷㄴㄱ</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 998년 : 목종 - 개정 전시과 시행
-ㄱ. 1010년 : 현종 - 거란의 2차 침입
-ㄴ. 1049년 : 문종 - 동서 대비원 설치
+          <t xml:space="preserve">ㄷ. 936년 : 태조 - 후삼국 통일
+ㄴ. 1109년 : 예종 - 동북 9성 여진에 반환
+ㄱ. 1112년 : 예종 - 혜민국 설치
 </t>
         </is>
       </c>
